--- a/biology/Botanique/Lejeuneaceae/Lejeuneaceae.xlsx
+++ b/biology/Botanique/Lejeuneaceae/Lejeuneaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Lejeuneaceae forment une famille d'hépatiques de la classe des Jungermanniopsida (hépatiques à lobes), de l'ordre des Jungermanniales ou des Porellales selon les classifications. Elle a été créée par Antonio Casares-Gil en 1919.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon ITIS      (25 mars 2014)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon ITIS      (25 mars 2014) :
 genre Acanthocoleus R.M. Schust.
 genre Acantholejeunea (R.M. Schust.) R.M. Schust.
 genre Acrolejeunea (Spruce) Schiffn.
@@ -622,7 +636,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Casares-Gil, 1919 : Flora ibérica. Briófitas (1a. parte). Hepáticas, Madrid: Junta para Ampliación de Estudios e Investigaciones Científicas, Instituto Nacional de Ciencias, Museo Nacional de Ciencias Naturales.</t>
         </is>
